--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -809,12 +809,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -829,12 +835,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1138,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E46" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,50 +1567,50 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>82</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>82</v>
@@ -1618,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
@@ -1626,13 +1636,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
         <v>82</v>
@@ -1647,7 +1657,7 @@
         <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
@@ -1658,16 +1668,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1679,7 +1689,7 @@
         <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
@@ -1690,16 +1700,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1711,7 +1721,7 @@
         <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
@@ -1722,16 +1732,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1743,7 +1753,7 @@
         <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
         <v>20</v>
@@ -1754,16 +1764,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1775,7 +1785,7 @@
         <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L19" t="s">
         <v>20</v>
@@ -1786,16 +1796,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -1807,10 +1817,10 @@
         <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -1818,31 +1828,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
@@ -1850,16 +1860,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -1882,16 +1892,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -1903,27 +1913,27 @@
         <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1935,28 +1945,30 @@
         <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25">
         <v>4</v>
       </c>
@@ -1970,27 +1982,25 @@
         <v>4</v>
       </c>
       <c r="L25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
       <c r="H26">
         <v>4</v>
       </c>
@@ -2004,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2012,31 +2022,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
         <v>4</v>
       </c>
       <c r="L27" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2044,13 +2054,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -2065,10 +2075,10 @@
         <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,13 +2086,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
         <v>82</v>
@@ -2097,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L29" t="s">
         <v>5</v>
@@ -2108,16 +2118,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -2132,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2140,16 +2150,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -2164,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2172,13 +2182,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
         <v>82</v>
@@ -2204,13 +2214,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>82</v>
@@ -2236,16 +2246,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -2268,16 +2278,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -2300,16 +2310,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -2321,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L36" t="s">
         <v>5</v>
@@ -2332,16 +2342,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -2353,10 +2363,10 @@
         <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L37" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2364,31 +2374,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2396,13 +2406,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
@@ -2417,7 +2427,7 @@
         <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L39" t="s">
         <v>5</v>
@@ -2428,16 +2438,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="H40">
         <v>6</v>
@@ -2449,10 +2459,10 @@
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L40" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2460,16 +2470,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="H41">
         <v>6</v>
@@ -2484,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2492,16 +2502,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="H42">
         <v>6</v>
@@ -2513,10 +2523,10 @@
         <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L42" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2524,16 +2534,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="H43">
         <v>6</v>
@@ -2545,10 +2555,10 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2556,16 +2566,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="H44">
         <v>6</v>
@@ -2577,7 +2587,7 @@
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L44" t="s">
         <v>5</v>
@@ -2588,16 +2598,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="H45">
         <v>6</v>
@@ -2620,16 +2630,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>6</v>
@@ -2641,7 +2651,7 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L46" t="s">
         <v>5</v>
@@ -2652,16 +2662,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H47">
         <v>6</v>
@@ -2677,6 +2687,9 @@
       </c>
       <c r="L47" t="s">
         <v>5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2684,16 +2697,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="H48">
         <v>6</v>
@@ -2709,9 +2722,6 @@
       </c>
       <c r="L48" t="s">
         <v>5</v>
-      </c>
-      <c r="M48" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2719,10 +2729,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>59</v>
@@ -2751,16 +2761,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="H50">
         <v>6</v>
@@ -2783,16 +2793,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>6</v>
@@ -2804,7 +2814,7 @@
         <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L51" t="s">
         <v>5</v>
@@ -2815,31 +2825,34 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="K52" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="M52" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2847,13 +2860,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
         <v>69</v>
@@ -2882,16 +2895,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -2903,13 +2916,10 @@
         <v>39</v>
       </c>
       <c r="K54" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L54" t="s">
-        <v>71</v>
-      </c>
-      <c r="M54" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2917,31 +2927,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s">
         <v>4</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2949,13 +2959,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
         <v>82</v>
@@ -2970,10 +2980,10 @@
         <v>84</v>
       </c>
       <c r="K56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L56" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2981,16 +2991,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="H57">
         <v>8</v>
@@ -3002,10 +3012,10 @@
         <v>84</v>
       </c>
       <c r="K57" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L57" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3013,13 +3023,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
         <v>123</v>
@@ -3045,16 +3055,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="H59">
         <v>8</v>
@@ -3066,10 +3076,10 @@
         <v>84</v>
       </c>
       <c r="K59" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3077,31 +3087,34 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="K60" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>47</v>
+        <v>77</v>
+      </c>
+      <c r="M60" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3109,13 +3122,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
         <v>69</v>
@@ -3144,16 +3157,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H62">
         <v>9</v>
@@ -3165,13 +3178,10 @@
         <v>43</v>
       </c>
       <c r="K62" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62" t="s">
-        <v>77</v>
-      </c>
-      <c r="M62" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3179,16 +3189,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H63">
         <v>9</v>
@@ -3200,10 +3210,10 @@
         <v>43</v>
       </c>
       <c r="K63" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3211,16 +3221,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H64">
         <v>9</v>
@@ -3232,7 +3242,7 @@
         <v>43</v>
       </c>
       <c r="K64" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L64" t="s">
         <v>5</v>
@@ -3243,16 +3253,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="H65">
         <v>9</v>
@@ -3264,27 +3274,27 @@
         <v>43</v>
       </c>
       <c r="K65" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L65" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>227</v>
-      </c>
-      <c r="C66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" t="s">
-        <v>21</v>
+      <c r="B66" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="H66">
         <v>9</v>
@@ -3295,10 +3305,10 @@
       <c r="J66" t="s">
         <v>43</v>
       </c>
-      <c r="K66" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="K66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3475,10 +3485,26 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
+    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j5da7913ca98450ab299b9b62231058f>
+    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3641,25 +3667,9 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
-    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j5da7913ca98450ab299b9b62231058f>
-    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3729,14 +3739,31 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C49D17-E123-4DE8-9436-DC182C7BC6DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3755,27 +3782,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="268">
   <si>
     <t>S/M/L</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Fewer young parents smoking at time of delivery</t>
   </si>
   <si>
-    <t>Training staff to maintain and promote smoke free environment outside maternity unit</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>West Sussex wellbeing programmes are more engaged in tobacco control</t>
   </si>
   <si>
-    <t>Improved quit rates in phamracy providers</t>
-  </si>
-  <si>
     <t>Improved pathway for those being released from prison to support their smoking cessation</t>
   </si>
   <si>
@@ -589,9 +583,6 @@
     <t>Home visiting staff trained in Make Every Contact Count (MECC)</t>
   </si>
   <si>
-    <t>Roll out Make Every Contact Count (MECC) to 30% of operational crews</t>
-  </si>
-  <si>
     <t>Wellbeing programme that supports tobacco control</t>
   </si>
   <si>
@@ -781,9 +772,6 @@
     <t>Work with Vape shops to support stop smoking providers in primary care</t>
   </si>
   <si>
-    <t>Rollout Make Every Contact Count programme to clinical and non-clinical staff</t>
-  </si>
-  <si>
     <t>Rollout Make Every Contact Count (MECC) programme to clinical and non-clinical staff in healthcare settings such as primary care</t>
   </si>
   <si>
@@ -812,6 +800,27 @@
   </si>
   <si>
     <t>Review the smokefree policy for local authorities</t>
+  </si>
+  <si>
+    <t>Planning and licensing processes promoting smokefree environments</t>
+  </si>
+  <si>
+    <t>Training staff to maintain and promote smokefree environments outside maternity unit</t>
+  </si>
+  <si>
+    <t>Rollout Make Every Contact Count to clinical and non-clinical staff</t>
+  </si>
+  <si>
+    <t>Rollout Make Every Contact Count (MECC) to 30% of operational crews</t>
+  </si>
+  <si>
+    <t>Improved quit rates in pharmacy providers</t>
+  </si>
+  <si>
+    <t>Training for primary care staff to deliver stop smoking services</t>
+  </si>
+  <si>
+    <t>Work with primary care service providers to improve services delivered</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N56" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,40 +1207,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>1</v>
@@ -1242,16 +1251,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1277,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1312,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -1347,16 +1356,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1373,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1382,16 +1391,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1417,16 +1426,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1452,16 +1461,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1487,16 +1496,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1522,16 +1531,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1592,16 +1601,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1621,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1629,16 +1638,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1646,16 +1655,16 @@
         <v>3</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" s="3"/>
     </row>
@@ -1664,16 +1673,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1681,10 +1690,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1699,16 +1708,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1716,10 +1725,10 @@
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>12</v>
@@ -1734,16 +1743,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1751,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>10</v>
@@ -1769,16 +1778,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1786,10 +1795,10 @@
         <v>3</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>18</v>
@@ -1804,16 +1813,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1821,10 +1830,10 @@
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>10</v>
@@ -1839,16 +1848,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1856,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>4</v>
@@ -1874,16 +1883,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1891,10 +1900,10 @@
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>10</v>
@@ -1909,16 +1918,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1944,7 +1953,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -1979,16 +1988,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2014,16 +2023,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2040,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M24" s="3"/>
     </row>
@@ -2049,16 +2058,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2084,13 +2093,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>2</v>
@@ -2119,16 +2128,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2154,16 +2163,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2189,16 +2198,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2224,16 +2233,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2259,16 +2268,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2294,16 +2303,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2329,16 +2338,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2364,7 +2373,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>33</v>
@@ -2399,16 +2408,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2434,16 +2443,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2469,16 +2478,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2504,16 +2513,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2539,16 +2548,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2574,10 +2583,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -2609,10 +2618,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>11</v>
@@ -2644,16 +2653,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2679,10 +2688,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>23</v>
@@ -2714,16 +2723,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2749,16 +2758,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2784,16 +2793,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2819,16 +2828,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2854,10 +2863,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
@@ -2889,16 +2898,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2918,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2926,16 +2935,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2961,16 +2970,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2996,10 +3005,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>24</v>
@@ -3031,10 +3040,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>13</v>
@@ -3066,16 +3075,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3092,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3103,16 +3112,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -3129,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3143,13 +3152,13 @@
         <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3175,16 +3184,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3192,16 +3201,16 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M57" s="3"/>
     </row>
@@ -3210,16 +3219,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3227,16 +3236,16 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M58" s="3"/>
     </row>
@@ -3245,16 +3254,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3262,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -3280,16 +3289,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3297,10 +3306,10 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -3315,16 +3324,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3332,16 +3341,16 @@
         <v>8</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M61" s="3"/>
     </row>
@@ -3350,16 +3359,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3376,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3387,16 +3396,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3413,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3424,16 +3433,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3459,16 +3468,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3494,16 +3503,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3529,7 +3538,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>41</v>
@@ -3564,16 +3573,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3599,16 +3608,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3632,10 +3641,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>27</v>
@@ -3667,16 +3676,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3702,16 +3711,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3728,10 +3737,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3739,13 +3748,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>21</v>
@@ -3765,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M73" s="3"/>
     </row>
@@ -3773,14 +3782,17 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
+      <c r="B74" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C74" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H74" s="3">
         <v>10</v>
@@ -3795,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3811,26 +3823,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
-    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j5da7913ca98450ab299b9b62231058f>
-    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3993,9 +3989,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
+    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j5da7913ca98450ab299b9b62231058f>
+    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4065,31 +4077,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C49D17-E123-4DE8-9436-DC182C7BC6DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4108,10 +4103,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -790,9 +790,6 @@
     <t>Increase number of young people engaging with stop smoking services</t>
   </si>
   <si>
-    <t>Explore how planning and licensing processes in District and Boroughs can be utilised to promote  smokefree environments</t>
-  </si>
-  <si>
     <t>Safe and Well visits to test individual levels of carbon monoxide</t>
   </si>
   <si>
@@ -821,6 +818,9 @@
   </si>
   <si>
     <t>Work with primary care service providers to improve services delivered</t>
+  </si>
+  <si>
+    <t>Explore how planning and licensing processes in local authorities can be utilised to promote  smokefree environments</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="C69" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2274,7 @@
         <v>139</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>79</v>
@@ -2513,7 +2513,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>246</v>
@@ -2548,7 +2548,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>248</v>
@@ -2618,7 +2618,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>163</v>
@@ -2828,7 +2828,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>251</v>
@@ -3040,7 +3040,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>162</v>
@@ -3676,10 +3676,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>98</v>
@@ -3751,7 +3751,7 @@
         <v>220</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>252</v>
@@ -3783,10 +3783,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>255</v>
@@ -3823,10 +3823,26 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
+    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j5da7913ca98450ab299b9b62231058f>
+    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3989,25 +4005,9 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
-    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j5da7913ca98450ab299b9b62231058f>
-    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4077,14 +4077,31 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C49D17-E123-4DE8-9436-DC182C7BC6DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4103,27 +4120,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="267">
   <si>
     <t>S/M/L</t>
   </si>
@@ -154,12 +154,6 @@
     <t>Fewer young parents smoking at time of delivery</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Arun Wellbeing</t>
-  </si>
-  <si>
     <t>Pilot project 'Actively Quitting' using physical activity as a diversion</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>Greater sharing of intelligence to Trading Standards</t>
   </si>
   <si>
-    <t>C/E</t>
-  </si>
-  <si>
     <t>More traders brought into  compliance, increase in numbes of seizures and quantities seized</t>
   </si>
   <si>
@@ -241,18 +232,12 @@
     <t>Reduction in 'hit rates' of sales in UAS operations</t>
   </si>
   <si>
-    <t>I/C/E</t>
-  </si>
-  <si>
     <t>Educate businesses in West Sussex in under age sales legislation</t>
   </si>
   <si>
     <t>Increased number of businesses with knowledge of UAS legislation and engagment with TS</t>
   </si>
   <si>
-    <t>Worthing Wellbeing</t>
-  </si>
-  <si>
     <t>Increase in the number of smokers acessing SSS from workplaces deprived areas</t>
   </si>
   <si>
@@ -268,9 +253,6 @@
     <t>A partnership that actively discusses and addresses through working together the tobacco issues in West Sussex</t>
   </si>
   <si>
-    <t xml:space="preserve"> E</t>
-  </si>
-  <si>
     <t>Effective stop smoking services reaching those that most need to access them</t>
   </si>
   <si>
@@ -433,9 +415,6 @@
     <t>Improve data capturing from stop smoking services</t>
   </si>
   <si>
-    <t>improve quality of stop smoking service delivery</t>
-  </si>
-  <si>
     <t>Develop a Patient Group Directive around Champix prescribing</t>
   </si>
   <si>
@@ -460,9 +439,6 @@
     <t>Report on the number of people signposted to stop smoking services from wellbeing hubs</t>
   </si>
   <si>
-    <t>Worthing Wellbeing, all hubs</t>
-  </si>
-  <si>
     <t>Referring young people who use Health4Families who are smokers to stop smoking services</t>
   </si>
   <si>
@@ -517,15 +493,9 @@
     <t>Western Sussex Hospitals NHS Foundation Trust</t>
   </si>
   <si>
-    <t>Arun Wellbeing, Health4Families, Trading Standards, Worthing Wellbeing</t>
-  </si>
-  <si>
     <t>Develop the role of the wellbeing programme to support tobacco control</t>
   </si>
   <si>
-    <t>Maternity at Western Hospitals, Arun Wellbeing, Health4Families, Worthing Wellbeing</t>
-  </si>
-  <si>
     <t>ap_number</t>
   </si>
   <si>
@@ -703,9 +673,6 @@
     <t>partners</t>
   </si>
   <si>
-    <t>All hubs</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -821,6 +788,36 @@
   </si>
   <si>
     <t>Explore how planning and licensing processes in local authorities can be utilised to promote  smokefree environments</t>
+  </si>
+  <si>
+    <t>Wellbeing programme</t>
+  </si>
+  <si>
+    <t>Maternity at Western Hospitals, Wellbeing programme, Health4Families</t>
+  </si>
+  <si>
+    <t>C/P</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P</t>
+  </si>
+  <si>
+    <t>I/C/P</t>
+  </si>
+  <si>
+    <t>Public Health, District &amp; Boroughs</t>
+  </si>
+  <si>
+    <t>Public Health, Primary Care</t>
+  </si>
+  <si>
+    <t>Wellbeing programme, Health4Families, Trading Standards, District &amp; Boroughs, Public Health</t>
+  </si>
+  <si>
+    <t>Improve quality of stop smoking service delivery</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C69" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,40 +1204,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>1</v>
@@ -1251,16 +1248,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1286,16 +1283,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1321,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -1356,16 +1353,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1382,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1391,16 +1388,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1426,16 +1423,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1461,16 +1458,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1496,16 +1493,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1531,16 +1528,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1601,16 +1598,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1630,7 +1627,7 @@
         <v>20</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1638,16 +1635,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1655,16 +1652,16 @@
         <v>3</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M13" s="3"/>
     </row>
@@ -1673,16 +1670,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1690,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1708,16 +1705,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1725,10 +1722,10 @@
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>12</v>
@@ -1743,16 +1740,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1760,10 +1757,10 @@
         <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>10</v>
@@ -1778,16 +1775,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1795,10 +1792,10 @@
         <v>3</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>18</v>
@@ -1813,16 +1810,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1830,10 +1827,10 @@
         <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>10</v>
@@ -1848,16 +1845,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1865,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>4</v>
@@ -1883,16 +1880,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1900,10 +1897,10 @@
         <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>10</v>
@@ -1918,16 +1915,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1953,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -1988,16 +1985,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2023,16 +2020,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2049,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="M24" s="3"/>
     </row>
@@ -2058,16 +2055,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2093,13 +2090,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>2</v>
@@ -2128,16 +2125,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2163,16 +2160,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2198,16 +2195,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2233,16 +2230,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2268,16 +2265,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2303,16 +2300,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2338,16 +2335,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2373,7 +2370,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>33</v>
@@ -2408,16 +2405,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2443,16 +2440,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2478,16 +2475,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2513,16 +2510,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2548,16 +2545,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2583,10 +2580,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -2618,10 +2615,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>11</v>
@@ -2653,16 +2650,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2688,10 +2685,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>23</v>
@@ -2723,16 +2720,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2758,16 +2755,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2793,16 +2790,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2828,16 +2825,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2863,10 +2860,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
@@ -2898,16 +2895,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2927,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2935,16 +2932,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2970,16 +2967,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3005,10 +3002,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>24</v>
@@ -3040,10 +3037,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>13</v>
@@ -3075,16 +3072,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3101,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3112,16 +3109,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -3138,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3152,13 +3149,13 @@
         <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3184,16 +3181,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -3201,16 +3198,16 @@
         <v>8</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="M57" s="3"/>
     </row>
@@ -3219,16 +3216,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3236,16 +3233,16 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="M58" s="3"/>
     </row>
@@ -3254,16 +3251,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3271,10 +3268,10 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -3289,16 +3286,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3306,10 +3303,10 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -3324,16 +3321,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3341,16 +3338,16 @@
         <v>8</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="M61" s="3"/>
     </row>
@@ -3359,16 +3356,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -3385,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3396,16 +3393,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3422,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3433,16 +3430,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3468,16 +3465,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3503,16 +3500,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3538,7 +3535,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>41</v>
@@ -3573,16 +3570,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3608,16 +3605,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3641,10 +3638,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>27</v>
@@ -3676,16 +3673,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3711,16 +3708,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3737,10 +3734,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3748,13 +3745,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>21</v>
@@ -3774,7 +3771,7 @@
         <v>10</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="M73" s="3"/>
     </row>
@@ -3783,16 +3780,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="H74" s="3">
         <v>10</v>
@@ -3807,7 +3804,7 @@
         <v>10</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="E30" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,7 +2834,7 @@
         <v>93</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -3820,26 +3820,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
-    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j5da7913ca98450ab299b9b62231058f>
-    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4002,9 +3986,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
+    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j5da7913ca98450ab299b9b62231058f>
+    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4074,31 +4074,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C49D17-E123-4DE8-9436-DC182C7BC6DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4117,10 +4100,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="266">
   <si>
     <t>S/M/L</t>
   </si>
@@ -262,9 +262,6 @@
     <t>Improved data quality to understand service delivery and  targeting</t>
   </si>
   <si>
-    <t>Completed HEA used to inform servicee redseign</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>Recommendations to develop SFWSP</t>
   </si>
   <si>
-    <t xml:space="preserve"> Approriate interventions developed based on insight</t>
-  </si>
-  <si>
     <t>Local NHS Trusts have achieved the CQUIN</t>
   </si>
   <si>
@@ -818,6 +812,9 @@
   </si>
   <si>
     <t>Improve quality of stop smoking service delivery</t>
+  </si>
+  <si>
+    <t>Completed HEA used to inform service redseign</t>
   </si>
 </sst>
 </file>
@@ -1179,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,40 +1201,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>1</v>
@@ -1248,16 +1245,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1292,7 +1289,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1318,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -1359,7 +1356,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>64</v>
@@ -1379,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1388,16 +1385,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1423,10 +1420,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>80</v>
@@ -1458,16 +1455,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1493,16 +1490,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1528,16 +1525,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1598,10 +1595,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>59</v>
@@ -1635,13 +1632,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>74</v>
@@ -1661,7 +1658,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="3"/>
     </row>
@@ -1670,13 +1667,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>74</v>
@@ -1705,13 +1702,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>74</v>
@@ -1740,10 +1737,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>61</v>
@@ -1775,16 +1772,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1810,16 +1807,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1854,7 +1851,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1880,13 +1877,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>74</v>
@@ -1924,7 +1921,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1950,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -1985,16 +1982,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2020,13 +2017,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>74</v>
@@ -2046,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M24" s="3"/>
     </row>
@@ -2055,16 +2052,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2090,13 +2087,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>2</v>
@@ -2125,13 +2122,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>74</v>
@@ -2160,10 +2157,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>78</v>
@@ -2195,10 +2192,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>79</v>
@@ -2230,16 +2227,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2265,16 +2262,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2300,16 +2297,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2335,16 +2332,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2370,7 +2367,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>33</v>
@@ -2405,16 +2402,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2440,16 +2437,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2475,13 +2472,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>74</v>
@@ -2510,16 +2507,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2545,16 +2542,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2580,10 +2577,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -2615,10 +2612,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>11</v>
@@ -2650,16 +2647,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2685,10 +2682,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>23</v>
@@ -2720,16 +2717,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2755,13 +2752,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>74</v>
@@ -2790,16 +2787,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2825,16 +2822,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2860,10 +2857,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>6</v>
@@ -2895,10 +2892,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>57</v>
@@ -2932,16 +2929,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2967,16 +2964,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3002,10 +2999,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>24</v>
@@ -3037,10 +3034,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>13</v>
@@ -3072,10 +3069,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>66</v>
@@ -3098,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>67</v>
@@ -3109,10 +3106,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>68</v>
@@ -3135,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>67</v>
@@ -3155,7 +3152,7 @@
         <v>40</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3181,10 +3178,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>77</v>
@@ -3207,7 +3204,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M57" s="3"/>
     </row>
@@ -3216,13 +3213,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>74</v>
@@ -3242,7 +3239,7 @@
         <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M58" s="3"/>
     </row>
@@ -3251,16 +3248,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3286,16 +3283,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3321,16 +3318,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3347,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M61" s="3"/>
     </row>
@@ -3356,7 +3353,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>69</v>
@@ -3382,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>67</v>
@@ -3393,7 +3390,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>71</v>
@@ -3419,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>67</v>
@@ -3430,13 +3427,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>74</v>
@@ -3465,13 +3462,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>56</v>
@@ -3500,13 +3497,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>74</v>
@@ -3535,7 +3532,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>41</v>
@@ -3570,13 +3567,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>74</v>
@@ -3605,16 +3602,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3638,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>27</v>
@@ -3673,16 +3670,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3708,10 +3705,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>62</v>
@@ -3734,7 +3731,7 @@
         <v>4</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>63</v>
@@ -3745,13 +3742,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>21</v>
@@ -3771,7 +3768,7 @@
         <v>10</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M73" s="3"/>
     </row>
@@ -3780,16 +3777,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H74" s="3">
         <v>10</v>
@@ -3804,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3820,10 +3817,26 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
+    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j5da7913ca98450ab299b9b62231058f>
+    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3986,25 +3999,9 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
-    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j5da7913ca98450ab299b9b62231058f>
-    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4074,14 +4071,31 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C49D17-E123-4DE8-9436-DC182C7BC6DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4100,27 +4114,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Action plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Action plan'!$B$1:$M$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Action plan'!$B$1:$M$74</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="270">
   <si>
     <t>S/M/L</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Increased number of businesses with knowledge of UAS legislation and engagment with TS</t>
   </si>
   <si>
-    <t>Increase in the number of smokers acessing SSS from workplaces deprived areas</t>
-  </si>
-  <si>
     <t>Public Health</t>
   </si>
   <si>
@@ -815,6 +812,21 @@
   </si>
   <si>
     <t>Completed HEA used to inform service redseign</t>
+  </si>
+  <si>
+    <t>Hold stop smoking surgeries in community locations, specifically in disadvantaged areas</t>
+  </si>
+  <si>
+    <t>Hold stop smoking surgeries in community locations, specifically in disadvantaged wards</t>
+  </si>
+  <si>
+    <t>Increase in the number of smokers accessing stop smoking services from deprived areas</t>
+  </si>
+  <si>
+    <t>Wellbeing programme, Primary Care. IPEH Hubs, Voluntary Sectore Organisations, District &amp; Boroughs, Public Health</t>
+  </si>
+  <si>
+    <t>Increase in the number of smokers accessing SSS from workplaces deprived areas</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,40 +1213,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>1</v>
@@ -1245,16 +1257,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1289,7 +1301,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1315,10 +1327,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -1356,7 +1368,7 @@
         <v>65</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>64</v>
@@ -1376,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1385,16 +1397,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1420,16 +1432,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1455,16 +1467,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1490,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1525,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1595,10 +1607,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>59</v>
@@ -1632,16 +1644,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1658,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="3"/>
     </row>
@@ -1667,16 +1679,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1702,16 +1714,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1737,10 +1749,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>61</v>
@@ -1772,16 +1784,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1807,16 +1819,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1851,7 +1863,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1877,16 +1889,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1912,33 +1924,33 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M21" s="3"/>
     </row>
@@ -1947,16 +1959,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1982,16 +1994,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2005,7 +2017,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>20</v>
@@ -2017,16 +2029,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2040,31 +2052,31 @@
         <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3">
         <v>4</v>
       </c>
@@ -2078,28 +2090,28 @@
         <v>4</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="3">
         <v>4</v>
       </c>
@@ -2113,7 +2125,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M26" s="3"/>
     </row>
@@ -2122,33 +2134,33 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M27" s="3"/>
     </row>
@@ -2157,16 +2169,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2180,10 +2192,10 @@
         <v>35</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M28" s="3"/>
     </row>
@@ -2192,16 +2204,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2215,7 +2227,7 @@
         <v>35</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2227,16 +2239,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2253,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M30" s="3"/>
     </row>
@@ -2262,16 +2274,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2288,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M31" s="3"/>
     </row>
@@ -2297,16 +2309,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2332,16 +2344,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2367,16 +2379,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2402,16 +2414,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2437,16 +2449,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2460,7 +2472,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>5</v>
@@ -2472,16 +2484,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2495,10 +2507,10 @@
         <v>35</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M37" s="3"/>
     </row>
@@ -2507,16 +2519,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2530,10 +2542,10 @@
         <v>35</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M38" s="3"/>
     </row>
@@ -2542,16 +2554,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2577,30 +2589,30 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>5</v>
@@ -2612,13 +2624,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>2</v>
@@ -2635,7 +2647,7 @@
         <v>22</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
@@ -2647,16 +2659,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2670,10 +2682,10 @@
         <v>22</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M42" s="3"/>
     </row>
@@ -2682,16 +2694,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2708,7 +2720,7 @@
         <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M43" s="3"/>
     </row>
@@ -2717,16 +2729,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2740,10 +2752,10 @@
         <v>22</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M44" s="3"/>
     </row>
@@ -2752,16 +2764,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2775,10 +2787,10 @@
         <v>22</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M45" s="3"/>
     </row>
@@ -2787,16 +2799,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2810,7 +2822,7 @@
         <v>22</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>5</v>
@@ -2822,16 +2834,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -2857,16 +2869,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -2880,7 +2892,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
@@ -2892,16 +2904,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -2920,25 +2932,23 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -2957,23 +2967,25 @@
       <c r="L50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="3"/>
+      <c r="M50" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -2999,16 +3011,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -3034,16 +3046,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3057,7 +3069,7 @@
         <v>22</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>5</v>
@@ -3069,50 +3081,48 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>64</v>
@@ -3132,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>67</v>
@@ -3143,16 +3153,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3166,45 +3176,47 @@
         <v>39</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="M57" s="3"/>
     </row>
@@ -3213,16 +3225,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -3230,13 +3242,13 @@
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="K58" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>258</v>
@@ -3248,16 +3260,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -3265,16 +3277,16 @@
         <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="K59" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="M59" s="3"/>
     </row>
@@ -3283,16 +3295,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3300,10 +3312,10 @@
         <v>8</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -3318,16 +3330,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -3335,16 +3347,16 @@
         <v>8</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="K61" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="M61" s="3"/>
     </row>
@@ -3353,50 +3365,48 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>64</v>
@@ -3416,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>67</v>
@@ -3427,16 +3437,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3450,28 +3460,30 @@
         <v>43</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" s="3"/>
+        <v>259</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3485,10 +3497,10 @@
         <v>43</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M65" s="3"/>
     </row>
@@ -3497,16 +3509,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3520,7 +3532,7 @@
         <v>43</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
@@ -3532,16 +3544,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3555,28 +3567,28 @@
         <v>43</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3590,41 +3602,43 @@
         <v>43</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3">
+        <v>9</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K69" s="3"/>
       <c r="L69" s="3" t="s">
         <v>5</v>
       </c>
@@ -3635,16 +3649,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3657,9 +3671,7 @@
       <c r="J70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="K70" s="3"/>
       <c r="L70" s="3" t="s">
         <v>5</v>
       </c>
@@ -3670,16 +3682,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3693,10 +3705,10 @@
         <v>26</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M71" s="3"/>
     </row>
@@ -3705,16 +3717,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3728,30 +3740,28 @@
         <v>26</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3765,29 +3775,33 @@
         <v>26</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M73" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>242</v>
+      <c r="D74" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>261</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
       <c r="H74" s="3">
         <v>10</v>
       </c>
@@ -3801,11 +3815,44 @@
         <v>10</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H75" s="3">
+        <v>10</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M73">
+  <autoFilter ref="B1:M74">
     <sortState ref="B2:M70">
       <sortCondition ref="H1:H70"/>
     </sortState>
@@ -3817,26 +3864,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
-    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j5da7913ca98450ab299b9b62231058f>
-    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3999,9 +4030,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">6001052b-8a4f-49a5-9104-ed2894940f4d;2019-01-23 09:46:40;PENDINGCLASSIFICATION;WSCC Category:|False||PENDINGCLASSIFICATION|2019-01-23 09:46:40|UNDEFINED|35da7913-ca98-450a-b299-b9b62231058f;False</CSMeta2010Field>
+    <j5da7913ca98450ab299b9b62231058f xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j5da7913ca98450ab299b9b62231058f>
+    <TaxCatchAll xmlns="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4071,31 +4118,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C49D17-E123-4DE8-9436-DC182C7BC6DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4114,10 +4144,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtyler/Documents/Repositories/SFWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FB931A-D7CD-2A48-BEB8-9D7736B35D14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F916DBE7-78D6-4A49-8883-22250DF366B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="-17540" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="322">
   <si>
     <t>S/M/L</t>
   </si>
@@ -1507,8 +1507,8 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4150,7 +4150,9 @@
       <c r="J69" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="K69" s="8"/>
+      <c r="K69" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="L69" s="8" t="s">
         <v>5</v>
       </c>
@@ -4346,14 +4348,173 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:j5da7913ca98450ab299b9b62231058f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns1:CSMeta2010Field" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="CSMeta2010Field" ma:index="12" nillable="true" ma:displayName="Classification Status" ma:internalName="CSMeta2010Field" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="j5da7913ca98450ab299b9b62231058f" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="j5da7913ca98450ab299b9b62231058f" ma:taxonomyFieldName="WSCC_x0020_Category" ma:displayName="WSCC Category" ma:default="" ma:fieldId="{35da7913-ca98-450a-b299-b9b62231058f}" ma:taxonomyMulti="true" ma:sspId="73f0a195-02ac-4a72-b655-6664c0f36d60" ma:termSetId="7de65220-e004-4a12-a7da-04480380f206" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed03de46-a594-4457-9414-413b168f401d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ed03de46-a594-4457-9414-413b168f401d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">a2396b9a-e645-457e-8678-87a68e371f36;2019-06-14 12:01:42;FULLYMANUALCLASSIFIED;WSCC Category:2019-06-09 04:31:56|False|2019-06-14 12:01:42|MANUALCLASSIFIED|2019-06-14 12:01:42|UNDEFINED|00000000-0000-0000-0000-000000000000;False</CSMeta2010Field>
@@ -4602,172 +4763,13 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:j5da7913ca98450ab299b9b62231058f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns1:CSMeta2010Field" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="CSMeta2010Field" ma:index="12" nillable="true" ma:displayName="Classification Status" ma:internalName="CSMeta2010Field" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="j5da7913ca98450ab299b9b62231058f" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="j5da7913ca98450ab299b9b62231058f" ma:taxonomyFieldName="WSCC_x0020_Category" ma:displayName="WSCC Category" ma:default="" ma:fieldId="{35da7913-ca98-450a-b299-b9b62231058f}" ma:taxonomyMulti="true" ma:sspId="73f0a195-02ac-4a72-b655-6664c0f36d60" ma:termSetId="7de65220-e004-4a12-a7da-04480380f206" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed03de46-a594-4457-9414-413b168f401d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ed03de46-a594-4457-9414-413b168f401d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4837,25 +4839,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C49D17-E123-4DE8-9436-DC182C7BC6DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4874,10 +4865,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtyler/Documents/Repositories/SFWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F916DBE7-78D6-4A49-8883-22250DF366B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB043D9-BF01-8D47-A0CF-90A0B7E3C863}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="-17540" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action plan" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="325">
   <si>
     <t>S/M/L</t>
   </si>
@@ -799,36 +799,18 @@
     <t>Business case for maternity advisor being considered by LMS</t>
   </si>
   <si>
-    <t xml:space="preserve">Crawley added vaping to workplace policy. What about others? CEO forum piece for discussion </t>
-  </si>
-  <si>
     <t xml:space="preserve">Raised at Health and Wellbeing Board, planning element separate. </t>
   </si>
   <si>
-    <t>Sue C and I have met and discussed in relation to engagement with EE residence. Bit of a dead end with Accord but suggestion to engage with businesses with high level of migrant workers e.g. Butlins, Natures Way, Rolls Royce</t>
-  </si>
-  <si>
-    <t>Upcoming event in Wick (Littlehampton) for the community. Cream tea with info stands. Will disseminate cessation services info and hopefully illegal tobacco reporting if trading standards can supply?</t>
-  </si>
-  <si>
     <t>Directorate team meeting due next week has just been postponed until September</t>
   </si>
   <si>
     <t>Failed to recruit but hoping to utilise stop smoking service to recruit if possible</t>
   </si>
   <si>
-    <t>Been to businesses, smaller businesses, worthing, garages, dome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One element done. Going to Mosque in Braodfield </t>
-  </si>
-  <si>
     <t>All hubs have level 1</t>
   </si>
   <si>
-    <t>Family Assist has always and continues to provide information on smoking and smoke free homes as routine to all registered users so in reality, that action was achieved when Family Assist went live in August 2017. The only future changes that will be made to this is the improvement of that information and resource material.</t>
-  </si>
-  <si>
     <t>Maternity at Western Hospitals, Wellbeing programme</t>
   </si>
   <si>
@@ -850,9 +832,6 @@
     <t>TC strategy signed off by HWbB, presented at LCN, CIP,  CWS cancer steering group</t>
   </si>
   <si>
-    <t>Focus on Mid-Sussex and Arun districts where prevalence is higher. In addition to Wellbeing Hub providers being established in these areas, four additional community providers have also been established since the start of the year.</t>
-  </si>
-  <si>
     <t>Priority scoring tool used to identify providers who may require additional support to improve service quality. Recorded site visits based on this and reduction in scoring proof additional support/training has been effective. Of 17 providers visited last quarter 15 have reduced scoring post visit.</t>
   </si>
   <si>
@@ -896,9 +875,6 @@
   </si>
   <si>
     <t>This has not started yet</t>
-  </si>
-  <si>
-    <t>Currently the delivery of alcohol brief advice is only recorded on nursing admission paperwork (i.e. no electronic recording) and smoking very brief advice is currently not recorded. So unable to provide baseline data until recording is mandatory on Patientrack – now planned for late September.</t>
   </si>
   <si>
     <t>Evidence review planned for later in 2019</t>
@@ -958,9 +934,6 @@
 Lullaby Trust Safer Sleep Campaign is promoted by the Children’s Workforce in March. Smoking cessation is part of this campaign.</t>
   </si>
   <si>
-    <t>Being recorded on database- to outside providers- seem to be in house.</t>
-  </si>
-  <si>
     <t>Draft comms plan ready.</t>
   </si>
   <si>
@@ -968,9 +941,6 @@
   </si>
   <si>
     <t>Currently 85%, we anticipate compliance will improve when whole pre-assessment process is recorded  electronically – go live is early August.</t>
-  </si>
-  <si>
-    <t>Specification for working with vape shops agreed to start on coastal strip. Face to face and online training include ecugs advice also fact sheets on wellbeing website.</t>
   </si>
   <si>
     <t>Redesign in progress for new service from april 2020.</t>
@@ -994,13 +964,52 @@
     <t>Action plan developed. Includes: 1) Continue to raise importance of data quality
 2) Continue to review and respond to training position
 3) Review feedback and explore fundiung for integrated midwifery stop smoking service</t>
+  </si>
+  <si>
+    <t>Smoking status recorded on database referred to community providers-  Stop smoking service soon to be in house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One element done. Going to Mosque in Broadfield </t>
+  </si>
+  <si>
+    <t>Focus on  districts where prevalence is higher or number of prvoders lower. In addition to Wellbeing Hub providers being established in these areas, four additional community providers have also been established since the start of the year.</t>
+  </si>
+  <si>
+    <t>Specification for working with vape shops agreed to start on coastal strip. Face to face and online training include ecigs advice also fact sheets on wellbeing website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smoking very brief advice is currently not recorded. So unable to provide baseline data until recording is mandatory on Patientrack – now planned for late September.</t>
+  </si>
+  <si>
+    <t>Been to smaller businesses such as Worthing, garages, Dome</t>
+  </si>
+  <si>
+    <t>Family Assist has always and continues to provide information on smoking and smoke free homes as routine to all registered users so in reality, The only future changes that will be made to this is the improvement of that information and resource material.</t>
+  </si>
+  <si>
+    <t>All hubs have level 2 trained advisors.  Service  delivery to start in Late Summer 20019</t>
+  </si>
+  <si>
+    <t>Upcoming event in Wick (Littlehampton) for the community. Cream tea with info stands. Will disseminate cessation services and Illicit tobacco reporting info.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawley added vaping to workplace policy. </t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>Tried approaching ACCORD To support with this but they are unable to. Need to rethink approach</t>
+  </si>
+  <si>
+    <t>No progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,6 +1033,13 @@
       <sz val="11"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1102,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1162,6 +1178,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,8 +1532,8 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1579,7 @@
         <v>209</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>204</v>
@@ -1583,10 +1608,10 @@
         <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -1595,7 +1620,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>9</v>
@@ -1622,10 +1647,10 @@
         <v>241</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -1634,7 +1659,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>4</v>
@@ -1661,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
@@ -1673,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>11</v>
@@ -1700,10 +1725,10 @@
         <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
@@ -1712,7 +1737,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>4</v>
@@ -1739,10 +1764,10 @@
         <v>141</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H6" s="8">
         <v>2</v>
@@ -1751,7 +1776,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>11</v>
@@ -1778,10 +1803,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H7" s="8">
         <v>2</v>
@@ -1790,7 +1815,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>4</v>
@@ -1817,10 +1842,10 @@
         <v>141</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H8" s="8">
         <v>2</v>
@@ -1829,7 +1854,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>9</v>
@@ -1840,7 +1865,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1856,10 +1881,10 @@
         <v>241</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H9" s="8">
         <v>2</v>
@@ -1868,7 +1893,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>16</v>
@@ -1879,7 +1904,7 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1895,10 +1920,10 @@
         <v>241</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H10" s="8">
         <v>2</v>
@@ -1907,7 +1932,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>4</v>
@@ -1942,7 +1967,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>4</v>
@@ -1977,7 +2002,7 @@
         <v>26</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>9</v>
@@ -2006,7 +2031,7 @@
         <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="8">
@@ -2016,7 +2041,7 @@
         <v>41</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>9</v>
@@ -2043,7 +2068,7 @@
         <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="8">
@@ -2053,7 +2078,7 @@
         <v>41</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>9</v>
@@ -2080,7 +2105,7 @@
         <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="8">
@@ -2090,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>11</v>
@@ -2125,7 +2150,7 @@
         <v>41</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>9</v>
@@ -2136,7 +2161,7 @@
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2152,10 +2177,10 @@
         <v>241</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H17" s="8">
         <v>3</v>
@@ -2164,7 +2189,7 @@
         <v>41</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>16</v>
@@ -2191,10 +2216,10 @@
         <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H18" s="8">
         <v>3</v>
@@ -2203,7 +2228,7 @@
         <v>41</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>9</v>
@@ -2214,7 +2239,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2230,10 +2255,10 @@
         <v>241</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H19" s="8">
         <v>3</v>
@@ -2242,7 +2267,7 @@
         <v>41</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>4</v>
@@ -2269,7 +2294,7 @@
         <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="8">
@@ -2279,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>9</v>
@@ -2290,7 +2315,7 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2306,10 +2331,10 @@
         <v>253</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H21" s="8">
         <v>3</v>
@@ -2318,7 +2343,7 @@
         <v>41</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>0</v>
@@ -2339,16 +2364,16 @@
         <v>43</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>248</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H22" s="8">
         <v>4</v>
@@ -2357,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>16</v>
@@ -2384,10 +2409,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H23" s="8">
         <v>4</v>
@@ -2396,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>16</v>
@@ -2407,7 +2432,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="23">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -2423,10 +2448,10 @@
         <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>287</v>
+        <v>323</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="H24" s="8">
         <v>4</v>
@@ -2435,7 +2460,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>9</v>
@@ -2462,10 +2487,10 @@
         <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H25" s="8">
         <v>4</v>
@@ -2474,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>4</v>
@@ -2485,7 +2510,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" ht="144" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2501,10 +2526,10 @@
         <v>207</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H26" s="8">
         <v>4</v>
@@ -2513,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>4</v>
@@ -2540,10 +2565,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H27" s="8">
         <v>4</v>
@@ -2552,7 +2577,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>4</v>
@@ -2579,10 +2604,10 @@
         <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H28" s="8">
         <v>5</v>
@@ -2591,7 +2616,7 @@
         <v>29</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>4</v>
@@ -2618,10 +2643,10 @@
         <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H29" s="8">
         <v>5</v>
@@ -2630,7 +2655,7 @@
         <v>29</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>11</v>
@@ -2641,7 +2666,7 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2657,10 +2682,10 @@
         <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H30" s="8">
         <v>5</v>
@@ -2669,7 +2694,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>4</v>
@@ -2696,10 +2721,10 @@
         <v>142</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H31" s="8">
         <v>5</v>
@@ -2708,7 +2733,7 @@
         <v>29</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>4</v>
@@ -2735,10 +2760,10 @@
         <v>247</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H32" s="8">
         <v>5</v>
@@ -2747,7 +2772,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>4</v>
@@ -2774,10 +2799,10 @@
         <v>247</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H33" s="8">
         <v>5</v>
@@ -2786,7 +2811,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>4</v>
@@ -2813,10 +2838,10 @@
         <v>247</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H34" s="8">
         <v>5</v>
@@ -2825,7 +2850,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>4</v>
@@ -2860,7 +2885,7 @@
         <v>29</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>4</v>
@@ -2887,10 +2912,10 @@
         <v>141</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H36" s="8">
         <v>5</v>
@@ -2899,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>11</v>
@@ -2926,10 +2951,10 @@
         <v>63</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H37" s="8">
         <v>5</v>
@@ -2938,7 +2963,7 @@
         <v>29</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>9</v>
@@ -2965,10 +2990,10 @@
         <v>247</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H38" s="8">
         <v>5</v>
@@ -2977,7 +3002,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>0</v>
@@ -3004,10 +3029,10 @@
         <v>247</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H39" s="8">
         <v>5</v>
@@ -3016,7 +3041,7 @@
         <v>29</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>0</v>
@@ -3043,10 +3068,10 @@
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="H40" s="8">
         <v>6</v>
@@ -3055,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>4</v>
@@ -3066,7 +3091,7 @@
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" ht="112" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+      <c r="A41" s="21">
         <v>41</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3082,10 +3107,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H41" s="8">
         <v>6</v>
@@ -3094,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>9</v>
@@ -3121,10 +3146,10 @@
         <v>141</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H42" s="8">
         <v>6</v>
@@ -3133,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>4</v>
@@ -3168,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>4</v>
@@ -3203,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>9</v>
@@ -3230,7 +3255,7 @@
         <v>63</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8">
@@ -3240,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>11</v>
@@ -3250,7 +3275,7 @@
       </c>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13" ht="120" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>46</v>
       </c>
@@ -3267,10 +3292,10 @@
         <v>142</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H46" s="8">
         <v>6</v>
@@ -3279,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>9</v>
@@ -3290,7 +3315,7 @@
       <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+      <c r="A47" s="21">
         <v>47</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3306,9 +3331,11 @@
         <v>247</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G47" s="8"/>
+        <v>307</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="H47" s="8">
         <v>6</v>
       </c>
@@ -3316,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>9</v>
@@ -3343,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H48" s="8">
         <v>6</v>
@@ -3355,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>4</v>
@@ -3390,7 +3417,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>4</v>
@@ -3419,10 +3446,10 @@
         <v>241</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H50" s="8">
         <v>6</v>
@@ -3431,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>4</v>
@@ -3442,7 +3469,7 @@
       <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51" s="21">
         <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -3458,10 +3485,10 @@
         <v>241</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H51" s="8">
         <v>6</v>
@@ -3470,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>4</v>
@@ -3505,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>4</v>
@@ -3532,10 +3559,10 @@
         <v>2</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H53" s="8">
         <v>6</v>
@@ -3544,7 +3571,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>11</v>
@@ -3571,7 +3598,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8">
@@ -3581,7 +3608,7 @@
         <v>32</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>0</v>
@@ -3609,8 +3636,8 @@
       <c r="E55" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="4">
-        <v>0</v>
+      <c r="F55" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8">
@@ -3620,7 +3647,7 @@
         <v>32</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>0</v>
@@ -3646,7 +3673,7 @@
         <v>33</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="8"/>
@@ -3657,7 +3684,7 @@
         <v>32</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>4</v>
@@ -3694,7 +3721,7 @@
         <v>64</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>4</v>
@@ -3721,7 +3748,7 @@
         <v>63</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8">
@@ -3731,7 +3758,7 @@
         <v>64</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>9</v>
@@ -3742,7 +3769,7 @@
       <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
+      <c r="A59" s="21">
         <v>59</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3758,10 +3785,10 @@
         <v>98</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H59" s="8">
         <v>8</v>
@@ -3770,7 +3797,7 @@
         <v>64</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>4</v>
@@ -3797,10 +3824,10 @@
         <v>98</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H60" s="8">
         <v>8</v>
@@ -3809,7 +3836,7 @@
         <v>64</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>4</v>
@@ -3836,10 +3863,10 @@
         <v>246</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H61" s="8">
         <v>8</v>
@@ -3848,7 +3875,7 @@
         <v>64</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>11</v>
@@ -3875,7 +3902,7 @@
         <v>54</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8">
@@ -3885,7 +3912,7 @@
         <v>35</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>0</v>
@@ -3914,7 +3941,7 @@
         <v>54</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8">
@@ -3924,7 +3951,7 @@
         <v>35</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>0</v>
@@ -3953,10 +3980,10 @@
         <v>63</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H64" s="8">
         <v>9</v>
@@ -3965,7 +3992,7 @@
         <v>35</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>9</v>
@@ -4000,7 +4027,7 @@
         <v>35</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>4</v>
@@ -4030,7 +4057,7 @@
         <v>257</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H66" s="8">
         <v>9</v>
@@ -4039,7 +4066,7 @@
         <v>35</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>9</v>
@@ -4074,7 +4101,7 @@
         <v>35</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>4</v>
@@ -4101,10 +4128,10 @@
         <v>63</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H68" s="8">
         <v>9</v>
@@ -4113,7 +4140,7 @@
         <v>35</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>9</v>
@@ -4148,7 +4175,7 @@
         <v>22</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>0</v>
@@ -4183,7 +4210,7 @@
         <v>22</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>4</v>
@@ -4194,7 +4221,7 @@
       <c r="M70" s="8"/>
     </row>
     <row r="71" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
+      <c r="A71" s="21">
         <v>71</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -4210,9 +4237,11 @@
         <v>246</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G71" s="8"/>
+        <v>321</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="H71" s="8">
         <v>10</v>
       </c>
@@ -4220,7 +4249,7 @@
         <v>22</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>9</v>
@@ -4255,7 +4284,7 @@
         <v>22</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>4</v>
@@ -4292,7 +4321,7 @@
         <v>22</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>9</v>
@@ -4319,7 +4348,7 @@
         <v>246</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="8">
@@ -4329,7 +4358,7 @@
         <v>22</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>9</v>
@@ -4347,174 +4376,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:j5da7913ca98450ab299b9b62231058f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns1:CSMeta2010Field" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="CSMeta2010Field" ma:index="12" nillable="true" ma:displayName="Classification Status" ma:internalName="CSMeta2010Field" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="j5da7913ca98450ab299b9b62231058f" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="j5da7913ca98450ab299b9b62231058f" ma:taxonomyFieldName="WSCC_x0020_Category" ma:displayName="WSCC Category" ma:default="" ma:fieldId="{35da7913-ca98-450a-b299-b9b62231058f}" ma:taxonomyMulti="true" ma:sspId="73f0a195-02ac-4a72-b655-6664c0f36d60" ma:termSetId="7de65220-e004-4a12-a7da-04480380f206" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed03de46-a594-4457-9414-413b168f401d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ed03de46-a594-4457-9414-413b168f401d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">a2396b9a-e645-457e-8678-87a68e371f36;2019-06-14 12:01:42;FULLYMANUALCLASSIFIED;WSCC Category:2019-06-09 04:31:56|False|2019-06-14 12:01:42|MANUALCLASSIFIED|2019-06-14 12:01:42|UNDEFINED|00000000-0000-0000-0000-000000000000;False</CSMeta2010Field>
@@ -4763,7 +4624,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4772,7 +4633,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -4838,7 +4699,202 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:j5da7913ca98450ab299b9b62231058f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns1:CSMeta2010Field" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="CSMeta2010Field" ma:index="12" nillable="true" ma:displayName="Classification Status" ma:internalName="CSMeta2010Field" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="j5da7913ca98450ab299b9b62231058f" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="j5da7913ca98450ab299b9b62231058f" ma:taxonomyFieldName="WSCC_x0020_Category" ma:displayName="WSCC Category" ma:default="" ma:fieldId="{35da7913-ca98-450a-b299-b9b62231058f}" ma:taxonomyMulti="true" ma:sspId="73f0a195-02ac-4a72-b655-6664c0f36d60" ma:termSetId="7de65220-e004-4a12-a7da-04480380f206" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed03de46-a594-4457-9414-413b168f401d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ed03de46-a594-4457-9414-413b168f401d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5DE0344-6D0E-4DD9-A283-51EE83F1B53B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7EF8C93-57EF-45EC-BAE9-9308FAEFD416}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -4846,7 +4902,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C49D17-E123-4DE8-9436-DC182C7BC6DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4863,31 +4919,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5DE0344-6D0E-4DD9-A283-51EE83F1B53B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SFWS Action Plan.xlsx
+++ b/SFWS Action Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtyler/Documents/Repositories/SFWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB043D9-BF01-8D47-A0CF-90A0B7E3C863}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF40ECEA-54CB-2C42-A92A-4544EB53E5B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action plan" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="326">
   <si>
     <t>S/M/L</t>
   </si>
@@ -1003,6 +1003,9 @@
   </si>
   <si>
     <t>No progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Green</t>
   </si>
 </sst>
 </file>
@@ -1527,13 +1530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1630,7 +1633,7 @@
       </c>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1669,7 +1672,7 @@
       </c>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1747,7 +1750,7 @@
       </c>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" ht="192" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="192" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1786,7 +1789,7 @@
       </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1825,7 +1828,7 @@
       </c>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1864,7 +1867,7 @@
       </c>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1903,7 +1906,7 @@
       </c>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1942,7 +1945,7 @@
       </c>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1977,7 +1980,7 @@
       </c>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2051,7 +2054,7 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2088,7 +2091,7 @@
       </c>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2125,7 +2128,7 @@
       </c>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2160,7 +2163,7 @@
       </c>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -2199,7 +2202,7 @@
       </c>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2238,7 +2241,7 @@
       </c>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -2277,7 +2280,7 @@
       </c>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2314,7 +2317,7 @@
       </c>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -2353,7 +2356,7 @@
       </c>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2392,7 +2395,7 @@
       </c>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2431,7 +2434,7 @@
       </c>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>23</v>
       </c>
@@ -2470,7 +2473,7 @@
       </c>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2509,7 +2512,7 @@
       </c>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13" ht="144" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -2548,7 +2551,7 @@
       </c>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2587,7 +2590,7 @@
       </c>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2626,7 +2629,7 @@
       </c>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2665,7 +2668,7 @@
       </c>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -2704,7 +2707,7 @@
       </c>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="128" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2743,7 +2746,7 @@
       </c>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2782,7 +2785,7 @@
       </c>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2821,7 +2824,7 @@
       </c>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2860,7 +2863,7 @@
       </c>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2895,7 +2898,7 @@
       </c>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>36</v>
       </c>
@@ -2934,7 +2937,7 @@
       </c>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>37</v>
       </c>
@@ -2973,7 +2976,7 @@
       </c>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>38</v>
       </c>
@@ -3012,7 +3015,7 @@
       </c>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>39</v>
       </c>
@@ -3051,7 +3054,7 @@
       </c>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>40</v>
       </c>
@@ -3090,7 +3093,7 @@
       </c>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
         <v>41</v>
       </c>
@@ -3129,7 +3132,7 @@
       </c>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>42</v>
       </c>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>43</v>
       </c>
@@ -3203,7 +3206,7 @@
       </c>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>44</v>
       </c>
@@ -3238,7 +3241,7 @@
       </c>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>45</v>
       </c>
@@ -3275,7 +3278,7 @@
       </c>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>46</v>
       </c>
@@ -3314,7 +3317,7 @@
       </c>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
         <v>47</v>
       </c>
@@ -3353,7 +3356,7 @@
       </c>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>48</v>
       </c>
@@ -3392,7 +3395,7 @@
       </c>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>49</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>50</v>
       </c>
@@ -3468,7 +3471,7 @@
       </c>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21">
         <v>51</v>
       </c>
@@ -3507,7 +3510,7 @@
       </c>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="1:13" ht="160" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>52</v>
       </c>
@@ -3542,7 +3545,7 @@
       </c>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>53</v>
       </c>
@@ -3582,7 +3585,7 @@
       <c r="M53" s="8"/>
     </row>
     <row r="54" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+      <c r="A54" s="21">
         <v>54</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -3600,7 +3603,9 @@
       <c r="F54" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G54" s="8"/>
+      <c r="G54" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="H54" s="8">
         <v>7</v>
       </c>
@@ -3621,7 +3626,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
+      <c r="A55" s="21">
         <v>55</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -3639,7 +3644,9 @@
       <c r="F55" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G55" s="8"/>
+      <c r="G55" s="11" t="s">
+        <v>280</v>
+      </c>
       <c r="H55" s="8">
         <v>7</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>56</v>
       </c>
@@ -3694,7 +3701,7 @@
       </c>
       <c r="M56" s="8"/>
     </row>
-    <row r="57" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>57</v>
       </c>
@@ -3731,7 +3738,7 @@
       </c>
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>58</v>
       </c>
@@ -3768,7 +3775,7 @@
       </c>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
         <v>59</v>
       </c>
@@ -3807,7 +3814,7 @@
       </c>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>60</v>
       </c>
@@ -3846,7 +3853,7 @@
       </c>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>61</v>
       </c>
@@ -3886,7 +3893,7 @@
       <c r="M61" s="8"/>
     </row>
     <row r="62" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62" s="21">
         <v>62</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -3904,7 +3911,9 @@
       <c r="F62" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G62" s="8"/>
+      <c r="G62" s="16" t="s">
+        <v>325</v>
+      </c>
       <c r="H62" s="8">
         <v>9</v>
       </c>
@@ -3925,7 +3934,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
+      <c r="A63" s="21">
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -3943,7 +3952,9 @@
       <c r="F63" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G63" s="8"/>
+      <c r="G63" s="16" t="s">
+        <v>281</v>
+      </c>
       <c r="H63" s="8">
         <v>9</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>64</v>
       </c>
@@ -4002,7 +4013,7 @@
       </c>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>65</v>
       </c>
@@ -4037,7 +4048,7 @@
       </c>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>66</v>
       </c>
@@ -4076,7 +4087,7 @@
       </c>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>67</v>
       </c>
@@ -4111,7 +4122,7 @@
       </c>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="1:13" s="18" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="18" customFormat="1" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>68</v>
       </c>
@@ -4150,7 +4161,7 @@
       </c>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>69</v>
       </c>
@@ -4185,7 +4196,7 @@
       </c>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>70</v>
       </c>
@@ -4220,7 +4231,7 @@
       </c>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>71</v>
       </c>
@@ -4259,7 +4270,7 @@
       </c>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>72</v>
       </c>
@@ -4296,7 +4307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>73</v>
       </c>
@@ -4331,7 +4342,7 @@
       </c>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>74</v>
       </c>
@@ -4369,7 +4380,13 @@
       <c r="M74" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:M74" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Trading Standards"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
